--- a/biology/Zoologie/Brycon/Brycon.xlsx
+++ b/biology/Zoologie/Brycon/Brycon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Brycon regroupe plusieurs espèces de poissons américains de la famille des Bryconidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Brycon englobe une variété de poissons d'eau douce appartenant à la famille des Characidae, réputés pour leur taille respectable et leur apparence élégante. Ces poissons présentent un corps fusiforme et robuste, adapté à la nage rapide, avec des couleurs allant du gris argenté au vert brillant, souvent rehaussées de reflets métalliques et parfois de marques ou de lignes distinctives selon les espèces. Leurs grandes écailles et leurs nageoires bien développées contribuent à leur allure athlétique. Les Brycons sont équipés d'une bouche proportionnellement grande, leur permettant de consommer une variété d'aliments, y compris des fruits et des graines, ce qui est assez unique parmi les poissons d'eau douce. Leur taille adulte peut varier considérablement selon l'espèce, certains individus atteignant jusqu'à 60 cm de longueur dans les conditions optimales de leur habitat naturel. Leur aspect impressionnant et leur comportement dynamique en font des sujets d'intérêt pour les aquariums publics et les aquariophiles expérimentés capables de répondre à leurs besoins spécifiques en matière d'espace et de soins.
 </t>
@@ -542,7 +556,9 @@
           <t>Espèces proches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les espèces proches du genre Brycon sont principalement d'autres membres de la famille des Characidae, qui inclut une grande diversité de poissons d'eau douce répartis dans les habitats fluviaux et lacustres d'Amérique du Sud et Centrale. Parmi eux, les genres Salminus, Triportheus, et Colossoma partagent certaines similitudes écologiques et morphologiques avec Brycon, tels que la forme du corps adaptée à la nage rapide, un régime alimentaire varié incluant des éléments végétaux et animaux, et une taille souvent imposante. Salminus, par exemple, inclut des espèces comme le dorado (Salminus brasiliensis), un prédateur efficace aux habitudes alimentaires et à l'aspect physique rappelant ceux de Brycon mais avec une prédilection pour les eaux plus rapides. Triportheus offre des formes plus élancées et souvent plus petites, tandis que Colossoma, incluant le pacu, partage avec Brycon une préférence pour les régimes alimentaires incluant fruits et graines, mettant en lumière l'importante diversité alimentaire au sein de cette famille. Ces genres illustrent la richesse et la complexité des écosystèmes d'eau douce d'Amérique, où chaque espèce joue un rôle spécifique dans la dynamique de leur habitat.</t>
@@ -573,7 +589,9 @@
           <t>Répartition géographique et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Brycon sont des poissons d'eau douce qui se répartissent largement à travers les systèmes fluviaux d'Amérique du Sud et Centrale, s'étendant du sud du Mexique jusqu'à l'extrême nord de l'Argentine. Ces poissons habitent une diversité d'habitats allant des petits ruisseaux en forêt à de grandes rivières et lacs, où ils préfèrent généralement les eaux claires à courant modéré. La distribution géographique des Brycon reflète leur adaptabilité à différents environnements aquatiques, y compris les zones de rapides riches en oxygène ainsi que les eaux plus calmes et profondes. Cette variabilité d'habitats soutient une diversité d'espèces au sein du genre, chacune adaptée à des conditions spécifiques de son écosystème, ce qui fait des Brycon des acteurs écologiques importants dans les réseaux trophiques des rivières et des forêts inondées d'Amérique Latine. Leur présence indique souvent des eaux de bonne qualité et des habitats bien préservés, ce qui souligne l'importance de la conservation des cours d'eau tropicaux pour le maintien de la biodiversité.
 </t>
@@ -604,7 +622,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les poissons du genre Brycon sont connus pour leur comportement dynamique et actif, caractéristique des espèces adaptées à la vie dans des courants forts. Ils sont des nageurs puissants et agiles, capables de parcourir de longues distances pour trouver de la nourriture, échapper aux prédateurs, ou se reproduire. Leur régime alimentaire omnivore les conduit à explorer diverses sources alimentaires, allant de petits poissons et invertébrés à des fruits et graines tombés dans l'eau, ce qui en fait d'importants agents de dispersion des graines dans leurs habitats naturels. Les Brycons montrent également des comportements sociaux intéressants, souvent observés en groupes, surtout lors de la recherche de nourriture ou pendant la saison de reproduction, où ils peuvent former de grands bancs pour augmenter leurs chances de survie face aux prédateurs et optimiser les opportunités de reproduction. Cette tendance à la vie en groupe souligne leur nature sociale et leur capacité à interagir au sein de structures complexes, ajoutant une couche supplémentaire d'intérêt à leur étude comportementale en milieu naturel ou en captivité.
 </t>
@@ -635,7 +655,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Brycons adoptent un régime alimentaire remarquablement diversifié, reflétant leur adaptabilité écologique et leur rôle écologique central dans les écosystèmes aquatiques d'Amérique Latine. Omnivores, ils consomment une large gamme d'aliments, incluant des fruits et des graines tombant dans les cours d'eau, ce qui fait d'eux d'importants agents de dispersion pour de nombreuses plantes riveraines. En plus des éléments végétaux, leur alimentation englobe également des invertébrés aquatiques, des petits poissons, et des crustacés, témoignant de leur capacité à exploiter différentes niches alimentaires selon la disponibilité des ressources dans leur environnement. Cette flexibilité alimentaire leur permet de s'adapter aux variations saisonnières de la disponibilité alimentaire, assurant leur survie et leur prospérité dans des habitats changeants. Leur comportement alimentaire actif contribue également à la dynamique et à la santé des écosystèmes fluviaux, soulignant le rôle crucial des Brycons dans le maintien de la biodiversité et de l'équilibre écologique de leurs habitats naturels.
 </t>
@@ -666,7 +688,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La reproduction des poissons du genre Brycon est un événement saisonnier, intimement lié aux cycles hydrologiques de leurs habitats naturels. Typiquement, ces poissons migrent vers des zones de frai spécifiques lorsque les conditions, telles que l'augmentation du niveau de l'eau durant la saison des pluies, sont optimales. Ce comportement migratoire assure que leurs œufs et alevins se développeront dans des conditions favorables, avec une abondance de zones inondées offrant protection et nourriture. Les Brycons pratiquent la ponte en eau libre, dispersant leurs œufs dans des zones qui seront inondées, où les courants faibles et la végétation aquatique abondante offrent un abri contre les prédateurs et une source de nourriture pour les jeunes poissons. Ces stratégies reproductives reflètent une adaptation évolutive aux fluctuations environnementales de leurs écosystèmes, permettant à leurs populations de se maintenir malgré les défis posés par les variations saisonnières. La réussite de leur reproduction est cruciale non seulement pour la survie des espèces du genre Brycon mais aussi pour le maintien de la biodiversité et de la santé écologique des systèmes aquatiques qu'ils habitent.
 </t>
@@ -697,7 +721,9 @@
           <t>Maintenance en captivité</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La maintenance des poissons du genre Brycon en captivité représente un défi en raison de leur taille, de leur nature active et de leurs besoins alimentaires diversifiés. Ces poissons nécessitent de grands aquariums ou bassins avec beaucoup d'espace pour nager librement, simulant ainsi leur habitat naturel de cours d'eau avec un courant modéré à fort pour répondre à leur besoin d'activité physique constante. L'eau doit être bien oxygénée et maintenue propre par des filtrations efficaces, avec des paramètres tels que la température, le pH, et la dureté soigneusement contrôlés pour imiter les conditions de leur environnement d'origine. En termes de régime alimentaire, il est essentiel de fournir une alimentation variée comprenant des aliments végétaux et protéiniques pour refléter leur omnivorisme, avec des compléments en fruits, légumes, et aliments spécifiques pour poissons tropicaux. Les interactions sociales devraient également être prises en compte, car garder plusieurs individus ensemble peut aider à simuler leur comportement naturel de banc, tout en veillant à éviter les tensions dues à la surpopulation. Une attention particulière aux besoins spécifiques des Brycons peut conduire à une expérience enrichissante de leur élevage en captivité, permettant d'observer de près leur comportement fascinant et leur dynamisme.
 </t>
@@ -728,7 +754,9 @@
           <t>Elevage</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'élevage des Brycons en captivité requiert une approche méticuleuse, axée sur la reproduction des conditions naturelles propices à leur développement et à leur reproduction. Cela implique la création d'un environnement aquatique qui simule les rivières et les cours d'eau de leur habitat d'origine, avec un espace suffisant pour accommoder leur comportement de nage actif et des zones de frai appropriées. L'augmentation de la température de l'eau et l'imitation des cycles pluvieux peuvent encourager les comportements de frai. Un régime alimentaire riche et varié, comprenant des aliments vivants, congelés, et végétaux, est crucial pour assurer la santé et la vigueur des reproducteurs ainsi que le succès de la ponte. La gestion de la qualité de l'eau, avec des paramètres stables et une excellente filtration, est essentielle pour prévenir les maladies et favoriser le développement sain des œufs et des alevins. Les éleveurs doivent également être prêts à séparer les alevins des adultes pour éviter la prédation et fournir aux jeunes un régime alimentaire adapté à leur taille et à leurs besoins nutritionnels spécifiques. L'élevage réussi des Brycons en captivité exige donc une attention particulière aux détails environnementaux, alimentaires, et comportementaux, reflétant l'engagement nécessaire pour reproduire ces espèces fascinantes loin de leur milieu naturel.
